--- a/SourcesFound.xlsx
+++ b/SourcesFound.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Documents\STOICH\Aim1.STOICH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Documents\STOICH\STOICH.Aim1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA329E-B67D-4376-96CE-1B12CC053F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943B7B6-DFEB-46F7-B3FE-E5433C9698ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD17D835-5D7A-469C-958F-3E66375251F2}"/>
+    <workbookView xWindow="-21600" yWindow="4680" windowWidth="21600" windowHeight="11055" xr2:uid="{DD17D835-5D7A-469C-958F-3E66375251F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>NLAs2004</t>
   </si>
   <si>
-    <t>NLAwl2011</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -114,25 +111,19 @@
     <t>USA</t>
   </si>
   <si>
-    <t>Missing LatLon</t>
-  </si>
-  <si>
-    <t>Find LatLon</t>
-  </si>
-  <si>
-    <t>Sorted by ID?</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Missing LatLon and DOC</t>
-  </si>
-  <si>
-    <t>Find LatLon and DOC</t>
-  </si>
-  <si>
     <t>Mapped?</t>
+  </si>
+  <si>
+    <t>TN NO3</t>
+  </si>
+  <si>
+    <t>Need Redownload</t>
+  </si>
+  <si>
+    <t>Added NtoP in Medians</t>
   </si>
 </sst>
 </file>
@@ -148,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBC6651-0706-47EF-8353-BF4F24905A6D}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -515,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -526,22 +524,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -549,19 +547,22 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -569,42 +570,42 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -612,22 +613,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -635,19 +636,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -655,22 +659,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -678,65 +682,42 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
       <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/SourcesFound.xlsx
+++ b/SourcesFound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Documents\STOICH\STOICH.Aim1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943B7B6-DFEB-46F7-B3FE-E5433C9698ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A22073-CAC3-4E19-8CDE-728C87BF8E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="4680" windowWidth="21600" windowHeight="11055" xr2:uid="{DD17D835-5D7A-469C-958F-3E66375251F2}"/>
+    <workbookView xWindow="-24855" yWindow="2055" windowWidth="21600" windowHeight="11055" xr2:uid="{DD17D835-5D7A-469C-958F-3E66375251F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,6 +719,9 @@
       <c r="H10" t="s">
         <v>25</v>
       </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
